--- a/Data Source/dimEquipment.xlsx
+++ b/Data Source/dimEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\directory\Oryx Dashboard\Data Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\directory\Oryx Dashboard\Data Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8FA5C-8E3C-4BE1-AB17-693E5397B26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A0CDE-3286-48C4-AA60-2B5E25E6A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimProductionPlace" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="300">
   <si>
     <t>Country Flag</t>
   </si>
@@ -867,6 +867,105 @@
   </si>
   <si>
     <t>MiG-29</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Flag_of_the_Soviet_Union.svg/23px-Flag_of_the_Soviet_Union.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/f/f3/Flag_of_Russia.svg/23px-Flag_of_Russia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Flag_of_Italy.svg/23px-Flag_of_Italy.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_Czech_Republic.svg/23px-Flag_of_the_Czech_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Flag_of_Iran.svg/23px-Flag_of_Iran.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Israel.svg/21px-Flag_of_Israel.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/12/Flag_of_Poland.svg/23px-Flag_of_Poland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/85/Flag_of_Belarus.svg/23px-Flag_of_Belarus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Flag_of_Slovenia.svg/23px-Flag_of_Slovenia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Flag_of_Ukraine.svg/23px-Flag_of_Ukraine.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/b/ba/Flag_of_Germany.svg/23px-Flag_of_Germany.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/4c/Flag_of_Sweden.svg/23px-Flag_of_Sweden.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/c/c3/Flag_of_France.svg/23px-Flag_of_France.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Flag_of_Yugoslavia_%281946-1992%29.svg/23px-Flag_of_Yugoslavia_%281946-1992%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/23px-Flag_of_the_Netherlands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/23px-Flag_of_Australia_%28converted%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/20px-Flag_of_Denmark.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Finland.svg/23px-Flag_of_Finland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flag_of_Turkey.svg/23px-Flag_of_Turkey.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_United_Arab_Emirates.svg/23px-Flag_of_the_United_Arab_Emirates.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8f/Flag_of_Estonia.svg/23px-Flag_of_Estonia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9a/Flag_of_Spain.svg/23px-Flag_of_Spain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/21px-Flag_of_Norway.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e6/Flag_of_Slovakia.svg/23px-Flag_of_Slovakia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/Flag_of_Lithuania.svg/23px-Flag_of_Lithuania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Flag_of_Latvia.svg/23px-Flag_of_Latvia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Cyprus.svg/23px-Flag_of_Cyprus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f3/Flag_of_Switzerland.svg/16px-Flag_of_Switzerland.svg.png</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/23px-Flag_of_Japan.svg.png</t>
   </si>
 </sst>
 </file>
@@ -1336,18 +1435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,10 +1459,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A32">_xlfn.UNIQUE([1]!Equipment[Country Flag])</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Flag_of_the_Soviet_Union.svg/23px-Flag_of_the_Soviet_Union.svg.png</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1371,21 +1471,21 @@
         <v>Soviet Union</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/f/f3/Flag_of_Russia.svg/23px-Flag_of_Russia.svg.png</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C32" si="0">IF(AND(B3&lt;&gt;"Soviet Union", B3&lt;&gt;"Russia", B3&lt;&gt;"Ukraine"), "Other", B3)</f>
+        <f t="shared" ref="C3:C33" si="0">IF(AND(B3&lt;&gt;"Soviet Union", B3&lt;&gt;"Russia", B3&lt;&gt;"Ukraine"), "Other", B3)</f>
         <v>Russia</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Flag_of_Italy.svg/23px-Flag_of_Italy.svg.png</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1395,9 +1495,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_Czech_Republic.svg/23px-Flag_of_the_Czech_Republic.svg.png</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1407,9 +1507,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Flag_of_Iran.svg/23px-Flag_of_Iran.svg.png</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1419,9 +1519,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Israel.svg/21px-Flag_of_Israel.svg.png</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1431,9 +1531,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/1/12/Flag_of_Poland.svg/23px-Flag_of_Poland.svg.png</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1443,9 +1543,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/85/Flag_of_Belarus.svg/23px-Flag_of_Belarus.svg.png</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1455,9 +1555,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Flag_of_Slovenia.svg/23px-Flag_of_Slovenia.svg.png</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1467,9 +1567,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Flag_of_Ukraine.svg/23px-Flag_of_Ukraine.svg.png</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1479,9 +1579,9 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/b/ba/Flag_of_Germany.svg/23px-Flag_of_Germany.svg.png</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>277</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1491,9 +1591,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/4/4c/Flag_of_Sweden.svg/23px-Flag_of_Sweden.svg.png</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1503,9 +1603,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/23px-Flag_of_the_United_Kingdom.svg.png</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1515,9 +1615,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/c/c3/Flag_of_France.svg/23px-Flag_of_France.svg.png</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1527,9 +1627,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/6/61/Flag_of_Yugoslavia_%281946-1992%29.svg/23px-Flag_of_Yugoslavia_%281946-1992%29.svg.png</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -1539,9 +1639,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>282</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1551,9 +1651,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/23px-Flag_of_the_Netherlands.svg.png</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>283</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -1563,9 +1663,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/23px-Flag_of_Australia_%28converted%29.svg.png</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>284</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1575,9 +1675,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/20px-Flag_of_Denmark.svg.png</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>285</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1587,9 +1687,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Finland.svg/23px-Flag_of_Finland.svg.png</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1599,9 +1699,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flag_of_Turkey.svg/23px-Flag_of_Turkey.svg.png</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>287</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1611,9 +1711,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_United_Arab_Emirates.svg/23px-Flag_of_the_United_Arab_Emirates.svg.png</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>288</v>
       </c>
       <c r="B23" t="s">
         <v>265</v>
@@ -1623,9 +1723,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>289</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1635,9 +1735,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8f/Flag_of_Estonia.svg/23px-Flag_of_Estonia.svg.png</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>290</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1647,9 +1747,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/en/thumb/9/9a/Flag_of_Spain.svg/23px-Flag_of_Spain.svg.png</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>291</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -1659,9 +1759,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/21px-Flag_of_Norway.svg.png</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>292</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -1671,9 +1771,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e6/Flag_of_Slovakia.svg/23px-Flag_of_Slovakia.svg.png</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>293</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1683,9 +1783,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/Flag_of_Lithuania.svg/23px-Flag_of_Lithuania.svg.png</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>294</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -1695,9 +1795,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Flag_of_Latvia.svg/23px-Flag_of_Latvia.svg.png</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>295</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -1707,9 +1807,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Cyprus.svg/23px-Flag_of_Cyprus.svg.png</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>296</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -1719,9 +1819,9 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f3/Flag_of_Switzerland.svg/16px-Flag_of_Switzerland.svg.png</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>297</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -1731,7 +1831,22 @@
         <v>Other</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Other</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1" xr:uid="{9C09155F-B97D-448F-AF1D-047465ED3FFB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1744,13 +1859,13 @@
       <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +1873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1766,7 +1881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1774,7 +1889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1782,7 +1897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1804,12 +1919,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1820,7 +1935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A27">_xlfn.UNIQUE([1]!Equipment[Type])</f>
         <v>Tanks</v>
@@ -1832,7 +1947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>Armoured Fighting Vehicles</v>
       </c>
@@ -1843,7 +1958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>Infantry Fighting Vehicles</v>
       </c>
@@ -1854,7 +1969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>Armoured Personnel Carriers</v>
       </c>
@@ -1865,7 +1980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>Mine-Resistant Ambush Protected</v>
       </c>
@@ -1876,7 +1991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>Infantry Mobility Vehicles</v>
       </c>
@@ -1887,7 +2002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <v>Command Posts And Communications Stations</v>
       </c>
@@ -1898,7 +2013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <v>Engineering Vehicles And Equipment</v>
       </c>
@@ -1909,7 +2024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <v>Self-Propelled Anti-Tank Missile Systems</v>
       </c>
@@ -1920,7 +2035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <v>Artillery Support Vehicles And Equipment</v>
       </c>
@@ -1931,7 +2046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <v>Towed Artillery</v>
       </c>
@@ -1942,7 +2057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <v>Self-Propelled Artillery</v>
       </c>
@@ -1953,7 +2068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <v>Multiple Rocket Launchers</v>
       </c>
@@ -1964,7 +2079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <v>Anti-Aircraft Guns</v>
       </c>
@@ -1975,7 +2090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <v>Self-Propelled Anti-Aircraft Guns</v>
       </c>
@@ -1986,7 +2101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <v>Surface-To-Air Missile Systems</v>
       </c>
@@ -1997,7 +2112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <v>Radars</v>
       </c>
@@ -2008,7 +2123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <v>Jammers And Deception Systems</v>
       </c>
@@ -2019,7 +2134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <v>Aircraft</v>
       </c>
@@ -2030,7 +2145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <v>Helicopters</v>
       </c>
@@ -2041,7 +2156,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <v>Unmanned Combat Aerial Vehicles</v>
       </c>
@@ -2052,7 +2167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <v>Reconnaissance Unmanned Aerial Vehicles</v>
       </c>
@@ -2063,7 +2178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <v>Naval Ships and Submarines</v>
       </c>
@@ -2074,7 +2189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <v>Trucks, Vehicles, and Jeeps</v>
       </c>
@@ -2085,7 +2200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <v>Radars And Communications Equipment</v>
       </c>
@@ -2096,7 +2211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <v>Naval Ships</v>
       </c>
@@ -2116,16 +2231,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F85744-28D8-4EBD-BE73-BB3696B30DB3}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -2136,7 +2251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2147,7 +2262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2158,7 +2273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2169,7 +2284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2295,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2191,7 +2306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2202,7 +2317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2213,7 +2328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2235,7 +2350,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2246,7 +2361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2257,7 +2372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -2268,7 +2383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2279,7 +2394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -2290,7 +2405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2301,7 +2416,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -2312,7 +2427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2323,7 +2438,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2334,7 +2449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2345,7 +2460,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -2356,7 +2471,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -2367,7 +2482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -2378,7 +2493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2389,7 +2504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2400,7 +2515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -2411,7 +2526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -2422,7 +2537,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2433,7 +2548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -2444,7 +2559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -2455,7 +2570,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>125</v>
       </c>
@@ -2466,7 +2581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -2477,7 +2592,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -2488,7 +2603,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -2499,7 +2614,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2510,7 +2625,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2521,7 +2636,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -2532,7 +2647,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -2543,7 +2658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -2554,7 +2669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -2565,7 +2680,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -2576,7 +2691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -2587,7 +2702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -2598,7 +2713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -2609,7 +2724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>157</v>
       </c>
@@ -2620,7 +2735,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -2631,7 +2746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -2642,7 +2757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -2653,7 +2768,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -2664,7 +2779,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -2675,7 +2790,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -2686,7 +2801,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -2697,7 +2812,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -2708,7 +2823,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -2719,7 +2834,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -2730,7 +2845,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -2741,7 +2856,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -2752,7 +2867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>196</v>
       </c>
@@ -2763,7 +2878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>196</v>
       </c>
@@ -2774,7 +2889,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -2785,7 +2900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -2796,7 +2911,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>205</v>
       </c>
@@ -2807,7 +2922,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -2818,7 +2933,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -2829,7 +2944,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -2840,7 +2955,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>212</v>
       </c>
@@ -2851,7 +2966,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -2862,7 +2977,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -2873,7 +2988,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>220</v>
       </c>
@@ -2884,7 +2999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>220</v>
       </c>
@@ -2895,7 +3010,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>220</v>
       </c>
@@ -2906,7 +3021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -2917,7 +3032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -2929,7 +3044,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>229</v>
       </c>
@@ -2941,7 +3056,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -2953,7 +3068,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -2965,7 +3080,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -2977,7 +3092,7 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -2989,7 +3104,7 @@
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>240</v>
       </c>
@@ -3001,7 +3116,7 @@
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>247</v>
       </c>
@@ -3013,7 +3128,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -3025,7 +3140,7 @@
       </c>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -3037,7 +3152,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -3049,7 +3164,7 @@
       </c>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -3061,7 +3176,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -3073,148 +3188,148 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I132" s="5"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I133" s="5"/>
     </row>
   </sheetData>
@@ -3287,9 +3402,9 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -3305,7 +3420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -3313,7 +3428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>

--- a/Data Source/dimEquipment.xlsx
+++ b/Data Source/dimEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\directory\Oryx Dashboard\Data Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moje programy\Oryx Dashboard\Data Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A0CDE-3286-48C4-AA60-2B5E25E6A4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BA459-0489-41F4-8C20-3DC9A42817C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimProductionPlace" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="304">
   <si>
     <t>Country Flag</t>
   </si>
@@ -966,6 +966,18 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/23px-Flag_of_Japan.svg.png</t>
+  </si>
+  <si>
+    <t>Unmanned Ground Vehicles</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/%D0%91%D0%BE%D0%B5%D0%B2%D0%BE%D0%B9_%D0%BC%D0%BD%D0%BE%D0%B3%D0%BE%D1%84%D1%83%D0%BD%D0%BA%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B9_%D1%80%D0%BE%D0%B1%D0%BE%D1%82%D0%BE%D1%82%D0%B5%D1%85%D0%BD%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9_%D0%BA%D0%BE%D0%BC%D0%BF%D0%BB%D0%B5%D0%BA%D1%81_%D0%A3%D1%80%D0%B0%D0%BD-9_-_%D0%9C%D0%B5%D0%B6%D0%B4%D1%83%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%BE%D0%B3%D0%BE_%D0%B2%D0%BE%D0%B5%D0%BD%D0%BD%D0%BE-%D1%82%D0%B5%D1%85%D0%BD%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%BE%D0%B3%D0%BE_%D1%84%D0%BE%D1%80%D1%83%D0%BC%D0%B0_%D0%90%D0%A0%D0%9C%D0%98%D0%AF-2016_01.jpg/330px-thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>Other UGV</t>
+  </si>
+  <si>
+    <t>UGV</t>
   </si>
 </sst>
 </file>
@@ -1004,15 +1016,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1020,12 +1038,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1036,6 +1067,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1161,8 +1193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{133F3B56-3D19-490C-9553-944B7B761634}" name="dimEquipmentFamilies" displayName="dimEquipmentFamilies" ref="A1:C85" totalsRowShown="0">
-  <autoFilter ref="A1:C85" xr:uid="{133F3B56-3D19-490C-9553-944B7B761634}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{133F3B56-3D19-490C-9553-944B7B761634}" name="dimEquipmentFamilies" displayName="dimEquipmentFamilies" ref="A1:C86" totalsRowShown="0">
+  <autoFilter ref="A1:C86" xr:uid="{133F3B56-3D19-490C-9553-944B7B761634}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D5FAA6F2-53ED-4A3B-A142-0AD3956311AD}" name="Type"/>
     <tableColumn id="2" xr3:uid="{B2C28C4D-A5D6-4332-8688-C90F6EBFAD99}" name="Family Name"/>
@@ -1437,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1913,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7752F4-873B-4A0B-AC11-AAFBDB403613}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,6 +2254,17 @@
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2231,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F85744-28D8-4EBD-BE73-BB3696B30DB3}">
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3189,6 +3232,15 @@
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">

--- a/Data Source/dimEquipment.xlsx
+++ b/Data Source/dimEquipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moje programy\Oryx Dashboard\Data Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BA459-0489-41F4-8C20-3DC9A42817C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835A8FD-880E-4D7A-B6A3-341C7B0C0D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimProductionPlace" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="308">
   <si>
     <t>Country Flag</t>
   </si>
@@ -978,6 +978,18 @@
   </si>
   <si>
     <t>UGV</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/Flag_of_Romania.svg/23px-Flag_of_Romania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/be/Flag_of_South_Korea_%281949%E2%80%931984%29.svg/23px-Flag_of_South_Korea_%281949%E2%80%931984%29.svg.png</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -1067,11 +1079,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1467,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1872,6 +1884,30 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(AND(B34&lt;&gt;"Soviet Union", B34&lt;&gt;"Russia", B34&lt;&gt;"Ukraine"), "Other", B34)</f>
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(AND(B35&lt;&gt;"Soviet Union", B35&lt;&gt;"Russia", B35&lt;&gt;"Ukraine"), "Other", B35)</f>
         <v>Other</v>
       </c>
     </row>
@@ -1947,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7752F4-873B-4A0B-AC11-AAFBDB403613}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
